--- a/reports/Metricas/MegaSena/tabela_frequencias.xlsx
+++ b/reports/Metricas/MegaSena/tabela_frequencias.xlsx
@@ -547,10 +547,10 @@
         <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
         <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
@@ -740,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="n">
         <v>54</v>
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
         <v>43</v>
@@ -862,7 +862,7 @@
         <v>47</v>
       </c>
       <c r="H16" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17">
@@ -1185,7 +1185,7 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
         <v>51</v>
@@ -1200,7 +1200,7 @@
         <v>36</v>
       </c>
       <c r="H29" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30">
@@ -1217,7 +1217,7 @@
         <v>54</v>
       </c>
       <c r="E30" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" t="n">
         <v>46</v>
@@ -1226,7 +1226,7 @@
         <v>39</v>
       </c>
       <c r="H30" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
